--- a/src/main/resources/Data/DataUser.xlsx
+++ b/src/main/resources/Data/DataUser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - SQA\Escritorio\Reto Semillero Servicios\Fake Store Api Semillero\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934BDDF5-3D20-41D5-B085-B9209E72B6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B6A02E-2A93-4C3D-8B2F-DF588F1EA3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Rodriguez</t>
   </si>
   <si>
-    <t>/users</t>
-  </si>
-  <si>
     <t>Lastname</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>1-956-001-1945</t>
+  </si>
+  <si>
+    <t>/user</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -438,10 +438,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -449,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -461,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
